--- a/ExcelMaster/Sample/Assets/Excels/Item.xlsx
+++ b/ExcelMaster/Sample/Assets/Excels/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaga\Documents\UnityProjects\ExcelMaster\ExcelMaster\Sample\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8979B756-7020-4E00-B9C1-2C54E8349152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762A805F-271E-4088-A248-2504CFB2AB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="2985" windowWidth="28770" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Category</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Potion</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -139,7 +135,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[JsonIgnore]int</t>
+    <t>[PrimaryKey]int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemCategory</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -468,7 +468,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -512,12 +512,12 @@
         <v>20</v>
       </c>
       <c r="N1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -570,7 +570,7 @@
         <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -593,7 +593,7 @@
         <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -622,7 +622,7 @@
         <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelMaster/Sample/Assets/Excels/Item.xlsx
+++ b/ExcelMaster/Sample/Assets/Excels/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaga\Documents\UnityProjects\ExcelMaster\ExcelMaster\Sample\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762A805F-271E-4088-A248-2504CFB2AB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD7EC52-27D5-4103-B710-1378C6EBFB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="2985" windowWidth="28770" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1"/>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>ItemCategory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NameSpace:Confront</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClassName: Item</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -465,16 +473,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="3.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
@@ -488,140 +496,148 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>55</v>
-      </c>
-      <c r="F5">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
         <v>19</v>
       </c>
       <c r="N5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
         <v>26</v>
       </c>
     </row>
